--- a/Proyecto Electrónico 2/Lista definitiva de consumo.xlsx
+++ b/Proyecto Electrónico 2/Lista definitiva de consumo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Salvador\OneDrive\Escritorio\PUCP\PUCP-2024-1\Proyecto Electrónico 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A48930C-2354-47B7-BC95-21FA4A89DCB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB54433-3732-4401-AB59-BFCE46496BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{14F1974C-5847-4972-BFB6-1096595A95CB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Corriente</t>
   </si>
@@ -72,6 +72,21 @@
   </si>
   <si>
     <t>Buzzer</t>
+  </si>
+  <si>
+    <t>IC de batería</t>
+  </si>
+  <si>
+    <t>Vout</t>
+  </si>
+  <si>
+    <t>Vbat</t>
+  </si>
+  <si>
+    <t>Iout</t>
+  </si>
+  <si>
+    <t>W</t>
   </si>
 </sst>
 </file>
@@ -107,8 +122,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EB441A-6F58-45D1-9C0F-3DB5D83F46B7}">
-  <dimension ref="B2:G12"/>
+  <dimension ref="B2:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="151" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="151" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -568,6 +586,48 @@
         <v>0</v>
       </c>
     </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <f>(C21-D21)*B21</f>
+        <v>1.2999999999999998</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B24" s="1">
+        <f>71.2*B23</f>
+        <v>92.559999999999988</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Proyecto Electrónico 2/Lista definitiva de consumo.xlsx
+++ b/Proyecto Electrónico 2/Lista definitiva de consumo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Salvador\OneDrive\Escritorio\PUCP\PUCP-2024-1\Proyecto Electrónico 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB54433-3732-4401-AB59-BFCE46496BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18A3B48-FCA1-4A1A-961A-BF5060053E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{14F1974C-5847-4972-BFB6-1096595A95CB}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{14F1974C-5847-4972-BFB6-1096595A95CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,20 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>Corriente</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Dispositivo</t>
   </si>
   <si>
-    <t>Tensión</t>
-  </si>
-  <si>
-    <t>Potencia</t>
-  </si>
-  <si>
     <t>Vibrador</t>
   </si>
   <si>
@@ -74,19 +65,13 @@
     <t>Buzzer</t>
   </si>
   <si>
-    <t>IC de batería</t>
-  </si>
-  <si>
-    <t>Vout</t>
-  </si>
-  <si>
-    <t>Vbat</t>
-  </si>
-  <si>
-    <t>Iout</t>
-  </si>
-  <si>
-    <t>W</t>
+    <t>Corriente (mA)</t>
+  </si>
+  <si>
+    <t>Tensión (V)</t>
+  </si>
+  <si>
+    <t>Potencia (mW)</t>
   </si>
 </sst>
 </file>
@@ -463,46 +448,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EB441A-6F58-45D1-9C0F-3DB5D83F46B7}">
   <dimension ref="B2:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="151" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="151" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="10.7265625" customWidth="1"/>
     <col min="3" max="3" width="20.36328125" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" customWidth="1"/>
     <col min="5" max="5" width="11.81640625" customWidth="1"/>
+    <col min="6" max="6" width="16.36328125" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>120</v>
@@ -524,109 +511,82 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <v>5</v>
       </c>
       <c r="F9">
-        <f t="shared" ref="F9:F12" si="0">E9*C9</f>
+        <f>E9*C9</f>
         <v>0</v>
       </c>
       <c r="G9">
-        <f t="shared" ref="G9:G12" si="1">D9*E9</f>
+        <f t="shared" ref="G9:G11" si="0">D9*E9</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>40</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
       </c>
       <c r="E10">
         <v>5</v>
       </c>
       <c r="F10">
+        <f>E10*C10</f>
+        <v>200</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ref="F9:F11" si="1">E11*C11</f>
+        <v>0</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
       </c>
       <c r="E12">
         <v>12</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>E12*C12</f>
+        <v>240</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>5</v>
-      </c>
-      <c r="D21">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B23">
-        <f>(C21-D21)*B21</f>
-        <v>1.2999999999999998</v>
-      </c>
-      <c r="C23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B24" s="1">
-        <f>71.2*B23</f>
-        <v>92.559999999999988</v>
-      </c>
+        <f>D12*E12</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
